--- a/MainTop/27.10.2025 Таня ВБ/spros_print_sorted.xlsx
+++ b/MainTop/27.10.2025 Таня ВБ/spros_print_sorted.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Ozon_upload\MainTop\27.10.2025 Таня ВБ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Documents\GitHub\Ozon_upload\MainTop\27.10.2025 Таня ВБ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAADCC45-57F8-4E2B-B457-E512E97F6B9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851893FC-7954-40FF-B372-43EC14DC905E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -849,7 +849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -885,11 +885,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -903,6 +914,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1347,6 +1359,7 @@
       <c r="D9" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
@@ -4668,5 +4681,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>